--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H2">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I2">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J2">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.482662</v>
+        <v>78.90112033333334</v>
       </c>
       <c r="N2">
-        <v>190.447986</v>
+        <v>236.703361</v>
       </c>
       <c r="O2">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="P2">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="Q2">
-        <v>664.7181085510947</v>
+        <v>667.4685248236924</v>
       </c>
       <c r="R2">
-        <v>5982.462976959851</v>
+        <v>6007.216723413231</v>
       </c>
       <c r="S2">
-        <v>0.07434962086434617</v>
+        <v>0.1021973425017332</v>
       </c>
       <c r="T2">
-        <v>0.07434962086434618</v>
+        <v>0.1021973425017332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H3">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I3">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J3">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>118.167102</v>
       </c>
       <c r="O3">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="P3">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="Q3">
-        <v>412.437086808596</v>
+        <v>333.213778297938</v>
       </c>
       <c r="R3">
-        <v>3711.933781277364</v>
+        <v>2998.924004681442</v>
       </c>
       <c r="S3">
-        <v>0.04613164684418623</v>
+        <v>0.05101897896384851</v>
       </c>
       <c r="T3">
-        <v>0.04613164684418623</v>
+        <v>0.0510189789638485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H4">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I4">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J4">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>106.129354</v>
+        <v>44.61912266666666</v>
       </c>
       <c r="N4">
-        <v>318.388062</v>
+        <v>133.857368</v>
       </c>
       <c r="O4">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="P4">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="Q4">
-        <v>1111.265678377343</v>
+        <v>377.4580114886587</v>
       </c>
       <c r="R4">
-        <v>10001.39110539608</v>
+        <v>3397.122103397928</v>
       </c>
       <c r="S4">
-        <v>0.1242965714398993</v>
+        <v>0.05779329548208881</v>
       </c>
       <c r="T4">
-        <v>0.1242965714398993</v>
+        <v>0.0577932954820888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H5">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I5">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J5">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.44461433333333</v>
+        <v>18.49514433333333</v>
       </c>
       <c r="N5">
-        <v>55.333843</v>
+        <v>55.485433</v>
       </c>
       <c r="O5">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="P5">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="Q5">
-        <v>193.1309867347362</v>
+        <v>156.4607277110603</v>
       </c>
       <c r="R5">
-        <v>1738.178880612626</v>
+        <v>1408.146549399543</v>
       </c>
       <c r="S5">
-        <v>0.02160196248028192</v>
+        <v>0.02395599190565768</v>
       </c>
       <c r="T5">
-        <v>0.02160196248028192</v>
+        <v>0.02395599190565768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H6">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I6">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J6">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.081098</v>
+        <v>52.59995866666666</v>
       </c>
       <c r="N6">
-        <v>189.243294</v>
+        <v>157.799876</v>
       </c>
       <c r="O6">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="P6">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="Q6">
-        <v>660.5133878583454</v>
+        <v>444.9723485383106</v>
       </c>
       <c r="R6">
-        <v>5944.620490725109</v>
+        <v>4004.751136844796</v>
       </c>
       <c r="S6">
-        <v>0.07387931715917435</v>
+        <v>0.06813054071633154</v>
       </c>
       <c r="T6">
-        <v>0.07387931715917437</v>
+        <v>0.06813054071633153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>38.529407</v>
       </c>
       <c r="I7">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J7">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.482662</v>
+        <v>78.90112033333334</v>
       </c>
       <c r="N7">
-        <v>190.447986</v>
+        <v>236.703361</v>
       </c>
       <c r="O7">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="P7">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="Q7">
-        <v>815.3164405471447</v>
+        <v>1013.337792692992</v>
       </c>
       <c r="R7">
-        <v>7337.847964924301</v>
+        <v>9120.040134236926</v>
       </c>
       <c r="S7">
-        <v>0.09119424829764346</v>
+        <v>0.1551540269215703</v>
       </c>
       <c r="T7">
-        <v>0.09119424829764346</v>
+        <v>0.1551540269215703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.529407</v>
       </c>
       <c r="I8">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J8">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>118.167102</v>
       </c>
       <c r="O8">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="P8">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="Q8">
         <v>505.878707440946</v>
@@ -948,10 +948,10 @@
         <v>4552.908366968514</v>
       </c>
       <c r="S8">
-        <v>0.05658321868733735</v>
+        <v>0.07745602617341772</v>
       </c>
       <c r="T8">
-        <v>0.05658321868733734</v>
+        <v>0.07745602617341772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.529407</v>
       </c>
       <c r="I9">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J9">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.129354</v>
+        <v>44.61912266666666</v>
       </c>
       <c r="N9">
-        <v>318.388062</v>
+        <v>133.857368</v>
       </c>
       <c r="O9">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="P9">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="Q9">
-        <v>1363.033691637693</v>
+        <v>573.0494457356417</v>
       </c>
       <c r="R9">
-        <v>12267.30322473923</v>
+        <v>5157.445011620775</v>
       </c>
       <c r="S9">
-        <v>0.1524571647664129</v>
+        <v>0.08774066236567947</v>
       </c>
       <c r="T9">
-        <v>0.1524571647664129</v>
+        <v>0.08774066236567946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>38.529407</v>
       </c>
       <c r="I10">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J10">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.44461433333333</v>
+        <v>18.49514433333333</v>
       </c>
       <c r="N10">
-        <v>55.333843</v>
+        <v>55.485433</v>
       </c>
       <c r="O10">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="P10">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="Q10">
-        <v>236.8866842023446</v>
+        <v>237.5356478475812</v>
       </c>
       <c r="R10">
-        <v>2131.980157821101</v>
+        <v>2137.820830628231</v>
       </c>
       <c r="S10">
-        <v>0.02649609651322236</v>
+        <v>0.03636952314097891</v>
       </c>
       <c r="T10">
-        <v>0.02649609651322236</v>
+        <v>0.03636952314097891</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>38.529407</v>
       </c>
       <c r="I11">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J11">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.081098</v>
+        <v>52.59995866666666</v>
       </c>
       <c r="N11">
-        <v>189.243294</v>
+        <v>157.799876</v>
       </c>
       <c r="O11">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="P11">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="Q11">
-        <v>810.1590996162954</v>
+        <v>675.548405217059</v>
       </c>
       <c r="R11">
-        <v>7291.431896546658</v>
+        <v>6079.935646953531</v>
       </c>
       <c r="S11">
-        <v>0.09061739272842687</v>
+        <v>0.1034344679589254</v>
       </c>
       <c r="T11">
-        <v>0.09061739272842687</v>
+        <v>0.1034344679589254</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H12">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I12">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J12">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.482662</v>
+        <v>78.90112033333334</v>
       </c>
       <c r="N12">
-        <v>190.447986</v>
+        <v>236.703361</v>
       </c>
       <c r="O12">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="P12">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="Q12">
-        <v>115.5937593994893</v>
+        <v>154.2858018360241</v>
       </c>
       <c r="R12">
-        <v>1040.343834595404</v>
+        <v>1388.572216524217</v>
       </c>
       <c r="S12">
-        <v>0.01292931857140141</v>
+        <v>0.02362298497529243</v>
       </c>
       <c r="T12">
-        <v>0.01292931857140141</v>
+        <v>0.02362298497529243</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H13">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I13">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J13">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>118.167102</v>
       </c>
       <c r="O13">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="P13">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="Q13">
-        <v>71.72236285829202</v>
+        <v>77.022590662366</v>
       </c>
       <c r="R13">
-        <v>645.5012657246281</v>
+        <v>693.2033159612939</v>
       </c>
       <c r="S13">
-        <v>0.008022243440354808</v>
+        <v>0.01179307156149696</v>
       </c>
       <c r="T13">
-        <v>0.008022243440354808</v>
+        <v>0.01179307156149696</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H14">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I14">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J14">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>106.129354</v>
+        <v>44.61912266666666</v>
       </c>
       <c r="N14">
-        <v>318.388062</v>
+        <v>133.857368</v>
       </c>
       <c r="O14">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="P14">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="Q14">
-        <v>193.2478983237853</v>
+        <v>87.2496751473662</v>
       </c>
       <c r="R14">
-        <v>1739.231084914068</v>
+        <v>785.2470763262958</v>
       </c>
       <c r="S14">
-        <v>0.02161503919988475</v>
+        <v>0.01335895941543555</v>
       </c>
       <c r="T14">
-        <v>0.02161503919988475</v>
+        <v>0.01335895941543555</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H15">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I15">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J15">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.44461433333333</v>
+        <v>18.49514433333333</v>
       </c>
       <c r="N15">
-        <v>55.333843</v>
+        <v>55.485433</v>
       </c>
       <c r="O15">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="P15">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="Q15">
-        <v>33.58526949395578</v>
+        <v>36.16600323906678</v>
       </c>
       <c r="R15">
-        <v>302.267425445602</v>
+        <v>325.494029151601</v>
       </c>
       <c r="S15">
-        <v>0.0037565578872906</v>
+        <v>0.005537443763236614</v>
       </c>
       <c r="T15">
-        <v>0.0037565578872906</v>
+        <v>0.005537443763236614</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H16">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I16">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J16">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.081098</v>
+        <v>52.59995866666666</v>
       </c>
       <c r="N16">
-        <v>189.243294</v>
+        <v>157.799876</v>
       </c>
       <c r="O16">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="P16">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="Q16">
-        <v>114.8625630233907</v>
+        <v>102.8556599087969</v>
       </c>
       <c r="R16">
-        <v>1033.763067210516</v>
+        <v>925.7009391791718</v>
       </c>
       <c r="S16">
-        <v>0.01284753326626083</v>
+        <v>0.01574842065656604</v>
       </c>
       <c r="T16">
-        <v>0.01284753326626083</v>
+        <v>0.01574842065656604</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H17">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I17">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J17">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.482662</v>
+        <v>78.90112033333334</v>
       </c>
       <c r="N17">
-        <v>190.447986</v>
+        <v>236.703361</v>
       </c>
       <c r="O17">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="P17">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="Q17">
-        <v>220.185042395336</v>
+        <v>231.1493533374961</v>
       </c>
       <c r="R17">
-        <v>1981.665381558024</v>
+        <v>2080.344180037464</v>
       </c>
       <c r="S17">
-        <v>0.02462799525317108</v>
+        <v>0.03539170575620184</v>
       </c>
       <c r="T17">
-        <v>0.02462799525317108</v>
+        <v>0.03539170575620184</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H18">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I18">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J18">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>118.167102</v>
       </c>
       <c r="O18">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="P18">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="Q18">
-        <v>136.618028418552</v>
+        <v>115.394429118672</v>
       </c>
       <c r="R18">
-        <v>1229.562255766968</v>
+        <v>1038.549862068048</v>
       </c>
       <c r="S18">
-        <v>0.01528091154052416</v>
+        <v>0.01766825484175144</v>
       </c>
       <c r="T18">
-        <v>0.01528091154052416</v>
+        <v>0.01766825484175144</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H19">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I19">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J19">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>106.129354</v>
+        <v>44.61912266666666</v>
       </c>
       <c r="N19">
-        <v>318.388062</v>
+        <v>133.857368</v>
       </c>
       <c r="O19">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="P19">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="Q19">
-        <v>368.1020230355119</v>
+        <v>130.716538717248</v>
       </c>
       <c r="R19">
-        <v>3312.918207319608</v>
+        <v>1176.448848455232</v>
       </c>
       <c r="S19">
-        <v>0.04117270990517243</v>
+        <v>0.02001425143074174</v>
       </c>
       <c r="T19">
-        <v>0.04117270990517243</v>
+        <v>0.02001425143074173</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H20">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I20">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J20">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.44461433333333</v>
+        <v>18.49514433333333</v>
       </c>
       <c r="N20">
-        <v>55.333843</v>
+        <v>55.485433</v>
       </c>
       <c r="O20">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="P20">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="Q20">
-        <v>63.97381680293466</v>
+        <v>54.18352280008801</v>
       </c>
       <c r="R20">
-        <v>575.764351226412</v>
+        <v>487.6517052007921</v>
       </c>
       <c r="S20">
-        <v>0.007155558067932071</v>
+        <v>0.008296139565552901</v>
       </c>
       <c r="T20">
-        <v>0.007155558067932071</v>
+        <v>0.008296139565552901</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H21">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I21">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J21">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>63.081098</v>
+        <v>52.59995866666666</v>
       </c>
       <c r="N21">
-        <v>189.243294</v>
+        <v>157.799876</v>
       </c>
       <c r="O21">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="P21">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="Q21">
-        <v>218.792246573944</v>
+        <v>154.097259709536</v>
       </c>
       <c r="R21">
-        <v>1969.130219165496</v>
+        <v>1386.875337385824</v>
       </c>
       <c r="S21">
-        <v>0.02447220915387606</v>
+        <v>0.02359411694098055</v>
       </c>
       <c r="T21">
-        <v>0.02447220915387606</v>
+        <v>0.02359411694098055</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H22">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I22">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J22">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.482662</v>
+        <v>78.90112033333334</v>
       </c>
       <c r="N22">
-        <v>190.447986</v>
+        <v>236.703361</v>
       </c>
       <c r="O22">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="P22">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="Q22">
-        <v>137.7510705955746</v>
+        <v>135.9261423434201</v>
       </c>
       <c r="R22">
-        <v>1239.759635360172</v>
+        <v>1223.335281090781</v>
       </c>
       <c r="S22">
-        <v>0.01540764384283584</v>
+        <v>0.02081190349414475</v>
       </c>
       <c r="T22">
-        <v>0.01540764384283584</v>
+        <v>0.02081190349414475</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H23">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I23">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J23">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>118.167102</v>
       </c>
       <c r="O23">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="P23">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="Q23">
-        <v>85.470291135956</v>
+        <v>67.857077562838</v>
       </c>
       <c r="R23">
-        <v>769.2326202236039</v>
+        <v>610.713698065542</v>
       </c>
       <c r="S23">
-        <v>0.009559967841067402</v>
+        <v>0.01038972286923614</v>
       </c>
       <c r="T23">
-        <v>0.009559967841067402</v>
+        <v>0.01038972286923614</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H24">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I24">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J24">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>106.129354</v>
+        <v>44.61912266666666</v>
       </c>
       <c r="N24">
-        <v>318.388062</v>
+        <v>133.857368</v>
       </c>
       <c r="O24">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="P24">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="Q24">
-        <v>230.2901559975026</v>
+        <v>76.86716225581421</v>
       </c>
       <c r="R24">
-        <v>2072.611403977524</v>
+        <v>691.8044603023279</v>
       </c>
       <c r="S24">
-        <v>0.02575826589789579</v>
+        <v>0.01176927363019665</v>
       </c>
       <c r="T24">
-        <v>0.02575826589789579</v>
+        <v>0.01176927363019665</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H25">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I25">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J25">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.44461433333333</v>
+        <v>18.49514433333333</v>
       </c>
       <c r="N25">
-        <v>55.333843</v>
+        <v>55.485433</v>
       </c>
       <c r="O25">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="P25">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="Q25">
-        <v>40.02298093830955</v>
+        <v>31.86233111385478</v>
       </c>
       <c r="R25">
-        <v>360.206828444786</v>
+        <v>286.760980024693</v>
       </c>
       <c r="S25">
-        <v>0.004476624632824393</v>
+        <v>0.004878500550428746</v>
       </c>
       <c r="T25">
-        <v>0.004476624632824393</v>
+        <v>0.004878500550428746</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H26">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I26">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J26">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>63.081098</v>
+        <v>52.59995866666666</v>
       </c>
       <c r="N26">
-        <v>189.243294</v>
+        <v>157.799876</v>
       </c>
       <c r="O26">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="P26">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="Q26">
-        <v>136.8797166042653</v>
+        <v>90.61607032673288</v>
       </c>
       <c r="R26">
-        <v>1231.917449438388</v>
+        <v>815.5446329405959</v>
       </c>
       <c r="S26">
-        <v>0.01531018171857734</v>
+        <v>0.01387439441850598</v>
       </c>
       <c r="T26">
-        <v>0.01531018171857734</v>
+        <v>0.01387439441850598</v>
       </c>
     </row>
   </sheetData>
